--- a/unmined_interventions.xlsx
+++ b/unmined_interventions.xlsx
@@ -12,84 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>NCTId</t>
   </si>
   <si>
-    <t>Rank.x</t>
-  </si>
-  <si>
-    <t>OfficialTitle</t>
+    <t>...1</t>
   </si>
   <si>
     <t>BriefTitle</t>
   </si>
   <si>
-    <t>PrimaryOutcomeMeasure</t>
-  </si>
-  <si>
-    <t>PrimaryOutcomeDescription</t>
-  </si>
-  <si>
-    <t>SecondaryOutcomeMeasure</t>
-  </si>
-  <si>
-    <t>SecondaryOutcomeDescription</t>
-  </si>
-  <si>
-    <t>StdAge</t>
-  </si>
-  <si>
-    <t>MaximumAge</t>
-  </si>
-  <si>
-    <t>MinimumAge</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>DetailedDescription</t>
-  </si>
-  <si>
-    <t>Rank.y</t>
-  </si>
-  <si>
-    <t>BriefSummary</t>
-  </si>
-  <si>
-    <t>Condition</t>
+    <t>Category</t>
   </si>
   <si>
     <t>InterventionName</t>
   </si>
   <si>
     <t>InterventionType</t>
-  </si>
-  <si>
-    <t>Phase</t>
-  </si>
-  <si>
-    <t>OverallStatus</t>
-  </si>
-  <si>
-    <t>StudyType</t>
-  </si>
-  <si>
-    <t>LocationCountry</t>
-  </si>
-  <si>
-    <t>StudyFirstPostDate</t>
-  </si>
-  <si>
-    <t>LastUpdatePostDate</t>
-  </si>
-  <si>
-    <t>PrimaryCompletionDate</t>
-  </si>
-  <si>
-    <t>ConditionMeshTerm</t>
   </si>
   <si>
     <t>lower_intervention</t>
@@ -190,66 +130,6 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/unmined_interventions.xlsx
+++ b/unmined_interventions.xlsx
@@ -12,24 +12,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>NCTId</t>
   </si>
   <si>
-    <t>...1</t>
+    <t>Rank.x</t>
+  </si>
+  <si>
+    <t>OfficialTitle</t>
   </si>
   <si>
     <t>BriefTitle</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>PrimaryOutcomeMeasure</t>
+  </si>
+  <si>
+    <t>PrimaryOutcomeDescription</t>
+  </si>
+  <si>
+    <t>SecondaryOutcomeMeasure</t>
+  </si>
+  <si>
+    <t>SecondaryOutcomeDescription</t>
+  </si>
+  <si>
+    <t>StdAge</t>
+  </si>
+  <si>
+    <t>MaximumAge</t>
+  </si>
+  <si>
+    <t>MinimumAge</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>DetailedDescription</t>
+  </si>
+  <si>
+    <t>Rank.y</t>
+  </si>
+  <si>
+    <t>BriefSummary</t>
+  </si>
+  <si>
+    <t>Condition</t>
   </si>
   <si>
     <t>InterventionName</t>
   </si>
   <si>
     <t>InterventionType</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>OverallStatus</t>
+  </si>
+  <si>
+    <t>StudyType</t>
+  </si>
+  <si>
+    <t>LocationCountry</t>
+  </si>
+  <si>
+    <t>StudyFirstPostDate</t>
+  </si>
+  <si>
+    <t>LastUpdatePostDate</t>
+  </si>
+  <si>
+    <t>PrimaryCompletionDate</t>
+  </si>
+  <si>
+    <t>ConditionMeshTerm</t>
   </si>
   <si>
     <t>lower_intervention</t>
@@ -130,6 +190,66 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
